--- a/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
+++ b/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>004350</t>
-  </si>
-  <si>
-    <t>汇丰晋信价值先锋股票</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>94.26</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>0.0232</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
+++ b/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,481 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
+++ b/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1018,7 +1019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,17 +1030,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1049,14 +1070,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.72</v>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1065,13 +1108,269 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
+++ b/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1301,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1312,17 +1313,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1332,14 +1353,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1348,14 +1391,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.72</v>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1364,13 +1429,439 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
+++ b/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004350</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -599,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010562</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢成长领航混合A</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.72</t>
+          <t>42.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36.06</t>
+          <t>70.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1704</t>
+          <t>1.4478</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -637,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010551</t>
+          <t>340008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>淳厚欣颐一年持有期混合</t>
+          <t>兴全有机增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>25.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>77.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1626</t>
+          <t>0.8698</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -675,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011349</t>
+          <t>010861</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>淳厚现代服务业股票A</t>
+          <t>长信企业优选一年持有期灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>76.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1531</t>
+          <t>0.2630</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -713,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007811</t>
+          <t>001759</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合A</t>
+          <t>嘉实成长增强灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.45</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.2403</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -751,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011350</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>淳厚现代服务业股票C</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>77.24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.1677</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -789,32 +795,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004608</t>
+          <t>012454</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信乐信灵活配置混合A</t>
+          <t>淳厚鑫悦混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30.74</t>
+          <t>85.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0947</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -827,32 +833,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010563</t>
+          <t>012621</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>永赢成长领航混合C</t>
+          <t>诺安先锋混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36.06</t>
+          <t>70.54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -865,32 +871,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007812</t>
+          <t>012455</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合C</t>
+          <t>淳厚鑫悦混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.45</t>
+          <t>85.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0254</t>
+          <t>0.0226</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -903,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010199</t>
+          <t>004608</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长信添利安心收益混合A</t>
+          <t>长信乐信灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33.46</t>
+          <t>42.79</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -941,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004609</t>
+          <t>001744</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长信乐信灵活配置混合C</t>
+          <t>诺安进取回报灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30.74</t>
+          <t>75.58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -979,34 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010200</t>
+          <t>004609</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信添利安心收益混合C</t>
+          <t>长信乐信灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33.46</t>
+          <t>42.79</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1353,32 +1361,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>010562</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>永赢成长领航混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.96</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.54</t>
+          <t>36.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4478</t>
+          <t>0.1704</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1391,36 +1399,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>340008</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全有机增长混合</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.81</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.49</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8698</t>
+          <t>0.1626</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1429,36 +1437,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010861</t>
+          <t>011349</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信企业优选一年持有期灵活配置混合</t>
+          <t>淳厚现代服务业股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.10</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2630</t>
+          <t>0.1531</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1467,36 +1475,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001759</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实成长增强灵活配置混合</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.29</t>
+          <t>76.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2403</t>
+          <t>0.1247</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1505,36 +1513,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>011350</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>淳厚现代服务业股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.24</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1677</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1543,32 +1551,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012454</t>
+          <t>004608</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>淳厚鑫悦混合A</t>
+          <t>长信乐信灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.68</t>
+          <t>30.74</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0947</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1581,32 +1589,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012621</t>
+          <t>010563</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺安先锋混合C</t>
+          <t>永赢成长领航混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>70.54</t>
+          <t>36.06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1619,32 +1627,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012455</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>淳厚鑫悦混合C</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.68</t>
+          <t>76.45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0226</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1657,36 +1665,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004608</t>
+          <t>010199</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长信乐信灵活配置混合A</t>
+          <t>长信添利安心收益混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>42.79</t>
+          <t>33.46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1695,36 +1703,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001744</t>
+          <t>004609</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安进取回报灵活配置混合</t>
+          <t>长信乐信灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.58</t>
+          <t>30.74</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1733,36 +1741,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004609</t>
+          <t>010200</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信乐信灵活配置混合C</t>
+          <t>长信添利安心收益混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>42.79</t>
+          <t>33.46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1776,96 +1782,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
+++ b/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>3.15</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -549,6 +566,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014356</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014357</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1022,7 +1703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1304,7 +1985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1776,7 +2457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
+++ b/数据整理/stocks/A股/创业板/300286-安科瑞.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>2.16</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>3.15</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.72</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -566,6 +583,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7647</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信乐融一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016105</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信兴乐优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信兴乐优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014356</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014357</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015631</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信乐融一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1229,7 +2024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1703,7 +2498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1985,7 +2780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2457,7 +3252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
